--- a/testing.xlsx
+++ b/testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ztest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\zGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC99ACC-4DA1-4791-812A-11BC1AAFF681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3145C6-178B-4A94-8B58-8133F2BD09E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6BCE6BDF-55D5-4E34-9EAC-01E667A4FF0A}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>coba lagih</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
   </si>
 </sst>
 </file>
@@ -379,15 +382,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF67B186-C29D-49C6-8E4D-89304594199E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
